--- a/超音波探傷/Data/超音波探傷実験2.xlsx
+++ b/超音波探傷/Data/超音波探傷実験2.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Uni\EXP2\2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Artis\Documents\TohokuUniversity\ExperimentReport2_Fine\超音波探傷\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7F8668-788C-4D64-B4BA-A3F23CA52BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CE2F58-4BBF-4651-88E4-FA3BD17B8BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{DB15931D-912A-456E-8685-ADB991106910}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DB15931D-912A-456E-8685-ADB991106910}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="実験I" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>al1</t>
     <phoneticPr fontId="1"/>
@@ -733,6 +734,101 @@
     <rPh sb="6" eb="7">
       <t>タカ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>測定者</t>
+    <rPh sb="0" eb="3">
+      <t>ソクテイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実験値</t>
+    <rPh sb="0" eb="3">
+      <t>ジッケンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>底面往復時間tB(mu s)</t>
+    <rPh sb="0" eb="2">
+      <t>テイメン</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>オウフクジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>底面エコー高さB(V)</t>
+    <rPh sb="0" eb="2">
+      <t>テイメン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>欠陥往復時間tF(mu s)</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカン</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>オウフクジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>欠陥エコー高さF(V)</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>欠陥先端位置L(mm)</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカン</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>センタン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計算値</t>
+    <rPh sb="0" eb="3">
+      <t>ケイサンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試験片厚さzB(mm)</t>
+    <rPh sb="0" eb="3">
+      <t>シケンヘン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>欠陥深さzF(mm)</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -741,7 +837,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="0.000E+00"/>
+    <numFmt numFmtId="176" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -911,10 +1007,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -923,10 +1019,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
@@ -934,15 +1030,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -954,6 +1041,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1289,10 +1385,173 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0276BF1-5529-4352-B6CE-A1BC71539789}">
+  <dimension ref="B3:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="18.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B3" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B4" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4">
+        <v>12.5</v>
+      </c>
+      <c r="E4">
+        <v>12.5</v>
+      </c>
+      <c r="F4">
+        <v>12.5</v>
+      </c>
+      <c r="G4">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B5" s="19"/>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="E5">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="F5">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="G5">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B6" s="19"/>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6">
+        <v>9.1</v>
+      </c>
+      <c r="E6">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="F6">
+        <v>9.1</v>
+      </c>
+      <c r="G6">
+        <v>9.14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B7" s="19"/>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="E7">
+        <v>34.9</v>
+      </c>
+      <c r="F7">
+        <v>32.9</v>
+      </c>
+      <c r="G7">
+        <v>34.700000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B8" s="19"/>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8">
+        <v>46</v>
+      </c>
+      <c r="E8">
+        <v>45</v>
+      </c>
+      <c r="F8">
+        <v>46</v>
+      </c>
+      <c r="G8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B9" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9">
+        <v>39.5</v>
+      </c>
+      <c r="E9">
+        <v>39.5</v>
+      </c>
+      <c r="F9">
+        <v>39.5</v>
+      </c>
+      <c r="G9">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B10" s="19"/>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10">
+        <v>28.75</v>
+      </c>
+      <c r="E10">
+        <v>29.13</v>
+      </c>
+      <c r="F10">
+        <v>28.75</v>
+      </c>
+      <c r="G10">
+        <v>28.88</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F49BF19-ED16-4B4E-8C3E-C87DF75CF7EF}">
   <dimension ref="A2:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="112" workbookViewId="0">
+    <sheetView zoomScale="112" workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
@@ -1354,7 +1613,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3">
@@ -1403,7 +1662,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A4" s="15"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="3">
         <v>2</v>
       </c>
@@ -1450,7 +1709,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A5" s="15"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -1497,7 +1756,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A6" s="15"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="3">
         <v>4</v>
       </c>
@@ -1544,7 +1803,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="3">
@@ -1593,7 +1852,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A8" s="15"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="3">
         <v>2</v>
       </c>
@@ -1640,7 +1899,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A9" s="15"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="3">
         <v>3</v>
       </c>
@@ -1687,7 +1946,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A10" s="15"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="3">
         <v>4</v>
       </c>
@@ -1734,7 +1993,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="3">
@@ -1783,7 +2042,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A12" s="15"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="3">
         <v>2</v>
       </c>
@@ -1830,7 +2089,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A13" s="15"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="3">
         <v>3</v>
       </c>
@@ -1877,7 +2136,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A14" s="15"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="3">
         <v>4</v>
       </c>
@@ -1934,12 +2193,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C71E3A3B-FDBF-4819-B60F-00DB04032B0F}">
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1959,18 +2218,18 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="16" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="16" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="17"/>
+      <c r="G2" s="21"/>
       <c r="L2" t="s">
         <v>16</v>
       </c>
@@ -2120,17 +2379,17 @@
       <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="17">
         <f>4*B8*10^-3*(B7/(B9*10^6))/(6.3*10^-3)^2</f>
         <v>7.6080761904761891</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="20">
+      <c r="C10" s="18"/>
+      <c r="D10" s="17">
         <f>4*D8*10^-3*(D7/(D9*10^6))/(6.3*10^-3)^2</f>
         <v>3.0995865961199285</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="20">
+      <c r="E10" s="18"/>
+      <c r="F10" s="17">
         <f>4*F8*10^-3*(F7/(F9*10^6))/(6.3*10^-3)^2</f>
         <v>3.2237037037037028</v>
       </c>
@@ -2157,17 +2416,17 @@
       <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="15">
         <f>B3*10^(-B11/20)</f>
         <v>169.95325032085088</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="18">
+      <c r="C12" s="16"/>
+      <c r="D12" s="15">
         <f>D3*10^(-D11/20)</f>
         <v>70.848306680032678</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="18">
+      <c r="E12" s="16"/>
+      <c r="F12" s="15">
         <f>F3*10^(-F11/20)</f>
         <v>77.683623508321389</v>
       </c>

--- a/超音波探傷/Data/超音波探傷実験2.xlsx
+++ b/超音波探傷/Data/超音波探傷実験2.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Artis\Documents\TohokuUniversity\ExperimentReport2_Fine\超音波探傷\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CE2F58-4BBF-4651-88E4-FA3BD17B8BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA104D08-5AFC-497D-B247-923AF19C409D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DB15931D-912A-456E-8685-ADB991106910}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{DB15931D-912A-456E-8685-ADB991106910}"/>
   </bookViews>
   <sheets>
     <sheet name="実験I" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="試験片の厚さとパラメータ" sheetId="4" r:id="rId2"/>
+    <sheet name="欠陥評価" sheetId="5" r:id="rId3"/>
+    <sheet name="試験片サイズ実測値" sheetId="6" r:id="rId4"/>
+    <sheet name="正解値" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="109">
   <si>
     <t>al1</t>
     <phoneticPr fontId="1"/>
@@ -831,13 +835,381 @@
     <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>試験片</t>
+    <rPh sb="0" eb="3">
+      <t>シケンヘン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平均B(V)</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>zB(mm)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nB(-)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B0(V)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平均</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Al音速</t>
+    <rPh sb="2" eb="4">
+      <t>オンソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステンレス音速</t>
+    <rPh sb="5" eb="7">
+      <t>オンソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>周波数MHz</t>
+    <rPh sb="0" eb="3">
+      <t>シュウハスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直径mm</t>
+    <rPh sb="0" eb="2">
+      <t>チョッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>底面往復時間tB(mus)</t>
+    <rPh sb="0" eb="2">
+      <t>テイメン</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>オウフクジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平均tB(mus)</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>き裂1_A</t>
+    <rPh sb="1" eb="2">
+      <t>レツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>き裂2_C</t>
+    <rPh sb="1" eb="2">
+      <t>レツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>き裂3_F</t>
+    <rPh sb="1" eb="2">
+      <t>レツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>欠陥1</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>欠陥2</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>欠陥3</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>欠陥4</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>位置x,y(mm)</t>
+    <rPh sb="0" eb="2">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>欠陥往復時間tF(mus)</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカン</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>オウフクジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>zF(mm)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F/B0(dB)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>d(mm)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇き裂3_E</t>
+    <rPh sb="2" eb="3">
+      <t>レツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇欠陥3</t>
+    <rPh sb="1" eb="3">
+      <t>ケッカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>140,50</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80,90</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>38,40</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>38,41</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>190,11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>148,15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>121,13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>29,13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>224,12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>184,20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>147,30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60,17</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>横幅x(mm)</t>
+    <rPh sb="0" eb="2">
+      <t>ヨコハバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>縦幅y(mm)</t>
+    <rPh sb="0" eb="2">
+      <t>タテハバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>厚さzB(mm)</t>
+    <rPh sb="0" eb="1">
+      <t>アツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x,y(mm)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>き裂1</t>
+    <rPh sb="1" eb="2">
+      <t>レツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>き裂2</t>
+    <rPh sb="1" eb="2">
+      <t>レツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>き裂3</t>
+    <rPh sb="1" eb="2">
+      <t>レツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>欠陥5</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>欠陥6</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60,50</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>120,90</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>160,40</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>35,8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>74,12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100,12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>129,9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>168,16</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>194,10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>25,14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>67,19</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100,30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>139,15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>190,22</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>225,13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7(1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3(0.5)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5(0.7)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8(1.2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10(1.4)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.000E+00"/>
+    <numFmt numFmtId="180" formatCode="0.000"/>
+    <numFmt numFmtId="181" formatCode="0.0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -985,7 +1357,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1050,6 +1422,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1386,10 +1776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0276BF1-5529-4352-B6CE-A1BC71539789}">
-  <dimension ref="B3:G10"/>
+  <dimension ref="B3:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1397,7 +1787,7 @@
     <col min="3" max="3" width="18.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B3" s="19" t="s">
         <v>29</v>
       </c>
@@ -1405,8 +1795,11 @@
       <c r="E3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="H3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B4" s="19" t="s">
         <v>30</v>
       </c>
@@ -1425,8 +1818,12 @@
       <c r="G4">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="H4">
+        <f>AVERAGE(D4:G4)</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B5" s="19"/>
       <c r="C5" t="s">
         <v>32</v>
@@ -1443,8 +1840,12 @@
       <c r="G5">
         <v>34.5</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="H5" s="24">
+        <f t="shared" ref="H5:H10" si="0">AVERAGE(D5:G5)</f>
+        <v>34.049999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B6" s="19"/>
       <c r="C6" t="s">
         <v>33</v>
@@ -1461,8 +1862,12 @@
       <c r="G6">
         <v>9.14</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>9.14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B7" s="19"/>
       <c r="C7" t="s">
         <v>34</v>
@@ -1479,8 +1884,12 @@
       <c r="G7">
         <v>34.700000000000003</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>34.200000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B8" s="19"/>
       <c r="C8" t="s">
         <v>35</v>
@@ -1497,8 +1906,12 @@
       <c r="G8">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="H8" s="25">
+        <f t="shared" si="0"/>
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B9" s="19" t="s">
         <v>36</v>
       </c>
@@ -1517,8 +1930,12 @@
       <c r="G9">
         <v>39.5</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B10" s="19"/>
       <c r="C10" t="s">
         <v>38</v>
@@ -1534,6 +1951,10 @@
       </c>
       <c r="G10">
         <v>28.88</v>
+      </c>
+      <c r="H10" s="24">
+        <f t="shared" si="0"/>
+        <v>28.877499999999998</v>
       </c>
     </row>
   </sheetData>
@@ -1548,11 +1969,1305 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8043F21-C603-485D-BA9A-CCF1C0FBA721}">
+  <dimension ref="B1:I10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1">
+        <v>6320</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1">
+        <v>5600</v>
+      </c>
+      <c r="F1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="D4">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="E4">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="F4">
+        <v>34.700000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>18.8</v>
+      </c>
+      <c r="E5">
+        <v>7.7</v>
+      </c>
+      <c r="F5">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="19">
+        <f>AVERAGE(C4:D4)</f>
+        <v>34.700000000000003</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="F6">
+        <v>34.700000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="19">
+        <f>AVERAGE(C5:D5)</f>
+        <v>18.899999999999999</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7">
+        <v>7.7</v>
+      </c>
+      <c r="F7">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="26">
+        <f>ROUNDDOWN(0.5*C1*C7*10^(-3),2)</f>
+        <v>59.72</v>
+      </c>
+      <c r="D8" s="26"/>
+      <c r="E8">
+        <f>0.5*C1*E7*10^(-3)</f>
+        <v>24.332000000000001</v>
+      </c>
+      <c r="F8" s="23">
+        <f>ROUND(0.5*E1*F7*10^(-3),3)</f>
+        <v>28.56</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="27">
+        <f>ROUNDDOWN(4*C8*$C$1*10^(-3)/($G$1*10^6*$I$1^2*10^(-6)),3)</f>
+        <v>7.6070000000000002</v>
+      </c>
+      <c r="D9" s="27"/>
+      <c r="E9" s="22">
+        <f>ROUNDDOWN(4*E8*$C$1*10^(-3)/($G$1*10^6*$I$1^2*10^(-6)),3)</f>
+        <v>3.0990000000000002</v>
+      </c>
+      <c r="F9" s="22">
+        <f>ROUNDDOWN(4*F8*$E$1*10^(-3)/($G$1*10^6*$I$1^2*10^(-6)),3)</f>
+        <v>3.2229999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="19">
+        <v>169.9</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10">
+        <v>70.84</v>
+      </c>
+      <c r="F10">
+        <v>77.680000000000007</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C3:D3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3546E42-1C3F-4E1A-B50E-D36906CEC33C}">
+  <dimension ref="B1:S19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="9.296875" customWidth="1"/>
+    <col min="4" max="4" width="11.59765625" customWidth="1"/>
+    <col min="5" max="5" width="17.19921875" customWidth="1"/>
+    <col min="6" max="6" width="19.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+    </row>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B3" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3">
+        <v>30.9</v>
+      </c>
+      <c r="F3">
+        <v>17.3</v>
+      </c>
+      <c r="G3">
+        <f>ROUNDDOWN(0.5*$C$17*F3*10^(-3),2)</f>
+        <v>54.66</v>
+      </c>
+      <c r="H3">
+        <f>ROUNDDOWN(4*G3*$C$17*10^(-3)/($G$17*10^6*$I$17^2*10^(-6)),3)</f>
+        <v>6.9619999999999997</v>
+      </c>
+      <c r="I3" s="23">
+        <f>ROUNDDOWN(20*LOG10(E3/$C$19),2)</f>
+        <v>-14.8</v>
+      </c>
+      <c r="J3">
+        <v>0.8</v>
+      </c>
+      <c r="K3">
+        <f>$I$17*J3</f>
+        <v>5.04</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" t="s">
+        <v>83</v>
+      </c>
+      <c r="P3" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q3">
+        <v>55</v>
+      </c>
+      <c r="R3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B4" s="19"/>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4">
+        <v>27.1</v>
+      </c>
+      <c r="F4">
+        <v>7.78</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G10" si="0">ROUNDDOWN(0.5*$C$17*F4*10^(-3),2)</f>
+        <v>24.58</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H14" si="1">ROUNDDOWN(4*G4*$C$17*10^(-3)/($G$17*10^6*$I$17^2*10^(-6)),3)</f>
+        <v>3.1309999999999998</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I14" si="2">ROUNDDOWN(20*LOG10(E4/$C$19),2)</f>
+        <v>-15.94</v>
+      </c>
+      <c r="J4">
+        <v>0.4</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K14" si="3">$I$17*J4</f>
+        <v>2.52</v>
+      </c>
+      <c r="N4" s="19"/>
+      <c r="O4" t="s">
+        <v>84</v>
+      </c>
+      <c r="P4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q4">
+        <v>25</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B5" s="19"/>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5">
+        <v>15.5</v>
+      </c>
+      <c r="F5">
+        <v>17.3</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>54.66</v>
+      </c>
+      <c r="H5">
+        <f>ROUNDDOWN(4*G5*$C$17*10^(-3)/($G$17*10^6*$I$17^2*10^(-6)),3)</f>
+        <v>6.9619999999999997</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>-20.79</v>
+      </c>
+      <c r="J5">
+        <v>0.6</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>3.78</v>
+      </c>
+      <c r="N5" s="19"/>
+      <c r="O5" t="s">
+        <v>85</v>
+      </c>
+      <c r="P5" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q5">
+        <v>55</v>
+      </c>
+      <c r="R5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B6" s="19"/>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="F6">
+        <v>17.3</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>54.66</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>6.9619999999999997</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>-20.46</v>
+      </c>
+      <c r="J6">
+        <v>0.8</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="3"/>
+        <v>5.04</v>
+      </c>
+      <c r="N6" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" t="s">
+        <v>55</v>
+      </c>
+      <c r="P6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q6">
+        <v>15</v>
+      </c>
+      <c r="R6" t="s">
+        <v>103</v>
+      </c>
+      <c r="S6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B7" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7">
+        <v>12.9</v>
+      </c>
+      <c r="F7">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>15.61</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>1.988</v>
+      </c>
+      <c r="I7">
+        <f>ROUNDDOWN(20*LOG10(E7/$E$19),2)</f>
+        <v>-14.79</v>
+      </c>
+      <c r="J7">
+        <v>0.3</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="3"/>
+        <v>1.89</v>
+      </c>
+      <c r="N7" s="19"/>
+      <c r="O7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q7">
+        <v>17</v>
+      </c>
+      <c r="R7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B8" s="19"/>
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8">
+        <v>16.5</v>
+      </c>
+      <c r="F8">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="G8">
+        <f>ROUNDDOWN(0.5*$C$17*F8*10^(-3),2)</f>
+        <v>15.73</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>2.0030000000000001</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ref="I8:I14" si="4">ROUNDDOWN(20*LOG10(E8/$E$19),2)</f>
+        <v>-12.65</v>
+      </c>
+      <c r="J8">
+        <v>0.4</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>2.52</v>
+      </c>
+      <c r="N8" s="19"/>
+      <c r="O8" t="s">
+        <v>57</v>
+      </c>
+      <c r="P8" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q8">
+        <v>17</v>
+      </c>
+      <c r="R8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B9" s="19"/>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9">
+        <v>11.5</v>
+      </c>
+      <c r="F9">
+        <v>4.18</v>
+      </c>
+      <c r="G9" s="23">
+        <f t="shared" si="0"/>
+        <v>13.2</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>1.681</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="4"/>
+        <v>-15.79</v>
+      </c>
+      <c r="J9">
+        <v>0.3</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="3"/>
+        <v>1.89</v>
+      </c>
+      <c r="N9" s="19"/>
+      <c r="O9" t="s">
+        <v>58</v>
+      </c>
+      <c r="P9" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q9">
+        <v>18</v>
+      </c>
+      <c r="R9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B10" s="19"/>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10">
+        <v>14.1</v>
+      </c>
+      <c r="F10">
+        <v>6.22</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>19.649999999999999</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>2.5030000000000001</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="4"/>
+        <v>-14.02</v>
+      </c>
+      <c r="J10">
+        <v>0.4</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="3"/>
+        <v>2.52</v>
+      </c>
+      <c r="N10" s="19"/>
+      <c r="O10" t="s">
+        <v>86</v>
+      </c>
+      <c r="P10" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q10">
+        <v>20</v>
+      </c>
+      <c r="R10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B11" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11">
+        <v>3.7</v>
+      </c>
+      <c r="F11">
+        <v>6.7</v>
+      </c>
+      <c r="G11">
+        <f>ROUNDDOWN(0.5*$E$17*F11*10^(-3),2)</f>
+        <v>18.760000000000002</v>
+      </c>
+      <c r="H11">
+        <f>ROUNDDOWN(4*G11*$E$17*10^(-3)/($G$17*10^6*$I$17^2*10^(-6)),3)</f>
+        <v>2.117</v>
+      </c>
+      <c r="I11">
+        <f>ROUNDDOWN(20*LOG10(E11/$F$19),2)</f>
+        <v>-26.44</v>
+      </c>
+      <c r="J11">
+        <v>0.2</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="3"/>
+        <v>1.26</v>
+      </c>
+      <c r="N11" s="19"/>
+      <c r="O11" t="s">
+        <v>87</v>
+      </c>
+      <c r="P11" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q11">
+        <v>20</v>
+      </c>
+      <c r="R11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B12" s="19"/>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12">
+        <v>5.5</v>
+      </c>
+      <c r="F12">
+        <v>7.1</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ref="G12:G14" si="5">ROUNDDOWN(0.5*$E$17*F12*10^(-3),2)</f>
+        <v>19.88</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ref="H12:H14" si="6">ROUNDDOWN(4*G12*$E$17*10^(-3)/($G$17*10^6*$I$17^2*10^(-6)),3)</f>
+        <v>2.2429999999999999</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ref="I12:I14" si="7">ROUNDDOWN(20*LOG10(E12/$F$19),2)</f>
+        <v>-22.99</v>
+      </c>
+      <c r="J12">
+        <v>0.3</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="3"/>
+        <v>1.89</v>
+      </c>
+      <c r="N12" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="O12" t="s">
+        <v>55</v>
+      </c>
+      <c r="P12" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q12">
+        <v>19</v>
+      </c>
+      <c r="R12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B13" s="19"/>
+      <c r="C13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13">
+        <v>6.7</v>
+      </c>
+      <c r="F13">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="5"/>
+        <v>24.13</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="6"/>
+        <v>2.7229999999999999</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="7"/>
+        <v>-21.28</v>
+      </c>
+      <c r="J13">
+        <v>0.3</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="3"/>
+        <v>1.89</v>
+      </c>
+      <c r="N13" s="19"/>
+      <c r="O13" t="s">
+        <v>56</v>
+      </c>
+      <c r="P13" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q13">
+        <v>21</v>
+      </c>
+      <c r="R13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B14" s="19"/>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14">
+        <v>3.7</v>
+      </c>
+      <c r="F14">
+        <v>7.54</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="5"/>
+        <v>21.11</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="6"/>
+        <v>2.3820000000000001</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="7"/>
+        <v>-26.44</v>
+      </c>
+      <c r="J14">
+        <v>0.2</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="3"/>
+        <v>1.26</v>
+      </c>
+      <c r="N14" s="19"/>
+      <c r="O14" t="s">
+        <v>57</v>
+      </c>
+      <c r="P14" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q14">
+        <v>25</v>
+      </c>
+      <c r="R14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="N15" s="19"/>
+      <c r="O15" t="s">
+        <v>58</v>
+      </c>
+      <c r="P15" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q15">
+        <v>25</v>
+      </c>
+      <c r="R15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="N16" s="19"/>
+      <c r="O16" t="s">
+        <v>86</v>
+      </c>
+      <c r="P16" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q16">
+        <v>21</v>
+      </c>
+      <c r="R16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17">
+        <v>6320</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17">
+        <v>5600</v>
+      </c>
+      <c r="F17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17">
+        <v>6.3</v>
+      </c>
+      <c r="N17" s="19"/>
+      <c r="O17" t="s">
+        <v>87</v>
+      </c>
+      <c r="P17" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q17">
+        <v>23</v>
+      </c>
+      <c r="R17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="19">
+        <v>169.9</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19">
+        <v>70.84</v>
+      </c>
+      <c r="F19">
+        <v>77.680000000000007</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N3:N5"/>
+    <mergeCell ref="N6:N11"/>
+    <mergeCell ref="N12:N17"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="B1:C2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234C5B11-3CD1-4C9A-BB4A-D3760B3B5080}">
+  <dimension ref="B1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="11.3984375" customWidth="1"/>
+    <col min="5" max="5" width="10.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2">
+        <v>200</v>
+      </c>
+      <c r="D2">
+        <v>223</v>
+      </c>
+      <c r="E2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3">
+        <v>120</v>
+      </c>
+      <c r="D3">
+        <v>25</v>
+      </c>
+      <c r="E3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4">
+        <v>60</v>
+      </c>
+      <c r="D4">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1CAB52-1191-44A8-8D25-A2B2F89E5AE4}">
+  <dimension ref="B2:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="11.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B3" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3">
+        <v>55</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B4" s="19"/>
+      <c r="C4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4">
+        <v>25</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B5" s="19"/>
+      <c r="C5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5">
+        <v>55</v>
+      </c>
+      <c r="F5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B6" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B7" s="19"/>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B8" s="19"/>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B9" s="19"/>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B10" s="19"/>
+      <c r="C10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B11" s="19"/>
+      <c r="C11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B12" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B13" s="19"/>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B14" s="19"/>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B15" s="19"/>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B16" s="19"/>
+      <c r="C16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B17" s="19"/>
+      <c r="C17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17">
+        <v>23</v>
+      </c>
+      <c r="F17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F49BF19-ED16-4B4E-8C3E-C87DF75CF7EF}">
   <dimension ref="A2:N14"/>
   <sheetViews>
-    <sheetView zoomScale="112" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView topLeftCell="G1" zoomScale="112" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2062,7 +3777,7 @@
         <v>5600</v>
       </c>
       <c r="H12" s="8">
-        <f t="shared" si="5"/>
+        <f>G12*1000*F12*10^-6/2</f>
         <v>19.88</v>
       </c>
       <c r="I12" s="1">
@@ -2193,7 +3908,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C71E3A3B-FDBF-4819-B60F-00DB04032B0F}">
   <dimension ref="A1:M12"/>
   <sheetViews>
